--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>这是buff10号的buff</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,137 +445,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,6 +93,22 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计算战斗力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,12 +138,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,9 +480,11 @@
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +497,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,8 +523,20 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,8 +549,20 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -514,8 +575,20 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -528,8 +601,20 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,8 +627,20 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -556,8 +653,20 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -570,8 +679,20 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -584,8 +705,20 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -598,8 +731,20 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -611,6 +756,18 @@
       </c>
       <c r="D11" t="s">
         <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +109,40 @@
   </si>
   <si>
     <t>是否计算战斗力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-1999战士技能涉及BUFF
+2000-2999道士技能涉及BUFF
+3000-3999法师技能涉及BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-200）BUFF等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-8）个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-64）个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1）0=不显示；1=显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）0=永久；＞0=具体BUFF持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1）0=不计算入战斗力统计；1=计算入战斗力统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,9 +198,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -177,12 +220,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -224,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,16 +825,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,6 +143,38 @@
   </si>
   <si>
     <t>（0-1）0=不计算入战斗力统计；1=计算入战斗力统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击BUFF10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击BUFF30次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击BUFF60次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击BUFF100次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升2%，暴击提升1%，防御下降3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升2.5%，暴击提升2%，致命提升1%，防御下降4%，命中下降1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升3%，暴击提升2.5%，致命提升2%，防御下降5%，命中下降2%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -813,6 +845,110 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1001</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1002</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
@@ -827,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,6 +175,38 @@
   </si>
   <si>
     <t>攻击提升3%，暴击提升2.5%，致命提升2%，防御下降5%，命中下降2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杀BUFF1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杀BUFF3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杀BUFF5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杀BUFF10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升5%，防御下降5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升7%，防御下降6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升10%，防御下降7%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -657,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -683,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -709,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -735,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -761,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -787,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -813,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -839,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -850,7 +882,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -865,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -876,7 +908,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -891,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -902,7 +934,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -917,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -928,7 +960,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -943,12 +975,116 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>30000</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>30000</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>30000</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>30000</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
     </row>
@@ -964,7 +1100,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,19 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff2号</t>
-  </si>
-  <si>
-    <t>buff3号</t>
-  </si>
-  <si>
-    <t>buff4号</t>
-  </si>
-  <si>
     <t>buff5号</t>
   </si>
   <si>
@@ -59,19 +46,6 @@
   </si>
   <si>
     <t>buff10号</t>
-  </si>
-  <si>
-    <t>这是buff1号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是buff2号的buff</t>
-  </si>
-  <si>
-    <t>这是buff3号的buff</t>
-  </si>
-  <si>
-    <t>这是buff4号的buff</t>
   </si>
   <si>
     <t>这是buff5号的buff</t>
@@ -207,6 +181,46 @@
   </si>
   <si>
     <t>攻击提升10%，防御下降7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是buff4号的buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是buff3号的buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对无敌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +247,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -262,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -274,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -292,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -334,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,16 +612,17 @@
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.75" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -607,20 +630,23 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
+      <c r="E1" t="s">
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,463 +654,575 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>100</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>103</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30000</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30000</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>500</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>103</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30000</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>500</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>110</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>30000</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>111</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>30000</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>112</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>30000</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>113</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>30000</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
     </row>
@@ -1100,7 +1238,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,15 +1252,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1130,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1138,39 +1276,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,6 +221,66 @@
   </si>
   <si>
     <t>绝对无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +316,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -279,11 +352,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,11 +384,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -600,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,12 +772,12 @@
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.75" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +805,53 @@
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -674,8 +879,32 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>100000</v>
+      </c>
+      <c r="N2">
+        <v>100000</v>
+      </c>
+      <c r="P2">
+        <v>100000</v>
+      </c>
+      <c r="S2">
+        <v>100000</v>
+      </c>
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <v>100000</v>
+      </c>
+      <c r="V2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -703,8 +932,32 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>100000</v>
+      </c>
+      <c r="N3">
+        <v>100000</v>
+      </c>
+      <c r="P3">
+        <v>100000</v>
+      </c>
+      <c r="S3">
+        <v>100000</v>
+      </c>
+      <c r="T3">
+        <v>100000</v>
+      </c>
+      <c r="U3">
+        <v>100000</v>
+      </c>
+      <c r="V3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -732,8 +985,26 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10000</v>
+      </c>
+      <c r="L4">
+        <v>10000</v>
+      </c>
+      <c r="O4">
+        <v>10000</v>
+      </c>
+      <c r="Q4">
+        <v>10000</v>
+      </c>
+      <c r="R4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -761,8 +1032,26 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10000</v>
+      </c>
+      <c r="L5">
+        <v>10000</v>
+      </c>
+      <c r="O5">
+        <v>10000</v>
+      </c>
+      <c r="Q5">
+        <v>10000</v>
+      </c>
+      <c r="R5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -790,8 +1079,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -819,8 +1111,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -848,8 +1143,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -877,8 +1175,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -906,8 +1207,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -935,8 +1239,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -964,8 +1271,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -993,8 +1303,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1022,8 +1335,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>101</v>
       </c>
@@ -1051,8 +1367,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>102</v>
       </c>
@@ -1080,8 +1399,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>103</v>
       </c>
@@ -1109,8 +1431,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>110</v>
       </c>
@@ -1138,8 +1463,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>111</v>
       </c>
@@ -1167,8 +1495,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>112</v>
       </c>
@@ -1196,8 +1527,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>113</v>
       </c>
@@ -1224,6 +1558,9 @@
       </c>
       <c r="I21">
         <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -371,9 +378,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -385,78 +391,17 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,7 +419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,808 +708,815 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="63.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
         <v>100000</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>100000</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>100000</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>100000</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="6">
         <v>100000</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="6">
         <v>100000</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
         <v>100000</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>100000</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>100000</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>100000</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="6">
         <v>100000</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="6">
         <v>100000</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>10000</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>10000</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>10000</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>10000</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>10000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>10000</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>10000</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>10000</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>100</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
         <v>500</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>101</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
         <v>500</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>102</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
         <v>500</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>103</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
         <v>500</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>110</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
         <v>30000</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>111</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
         <v>30000</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>112</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
         <v>30000</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>113</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
         <v>30000</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K2:X21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1580,20 +1532,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -1601,7 +1553,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1609,7 +1561,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1617,7 +1569,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1625,7 +1577,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -1633,7 +1585,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1641,7 +1593,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,14 @@
   </si>
   <si>
     <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,10 +729,11 @@
     <col min="6" max="7" width="9" style="6"/>
     <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="10" max="11" width="15.125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -752,53 +761,59 @@
       <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -827,21 +842,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
         <v>100000</v>
       </c>
       <c r="P2" s="6">
         <v>100000</v>
       </c>
-      <c r="S2" s="6">
-        <v>100000</v>
-      </c>
-      <c r="T2" s="6">
+      <c r="R2" s="6">
         <v>100000</v>
       </c>
       <c r="U2" s="6">
@@ -850,8 +865,14 @@
       <c r="V2" s="6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="W2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="X2" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -880,21 +901,21 @@
         <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>100000</v>
       </c>
       <c r="P3" s="6">
         <v>100000</v>
       </c>
-      <c r="S3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="T3" s="6">
+      <c r="R3" s="6">
         <v>100000</v>
       </c>
       <c r="U3" s="6">
@@ -903,8 +924,14 @@
       <c r="V3" s="6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="W3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="X3" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -933,25 +960,31 @@
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
         <v>10000</v>
       </c>
-      <c r="L4" s="6">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="N4" s="6">
         <v>10000</v>
       </c>
       <c r="Q4" s="6">
         <v>10000</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="T4" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -980,25 +1013,31 @@
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>10000</v>
       </c>
-      <c r="L5" s="6">
-        <v>10000</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="N5" s="6">
         <v>10000</v>
       </c>
       <c r="Q5" s="6">
         <v>10000</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="T5" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1027,10 +1066,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1059,10 +1104,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1091,10 +1142,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1123,10 +1180,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1155,10 +1218,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1187,10 +1256,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1219,10 +1294,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1251,10 +1332,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>100</v>
       </c>
@@ -1283,10 +1370,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>101</v>
       </c>
@@ -1315,10 +1408,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>102</v>
       </c>
@@ -1347,10 +1446,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>103</v>
       </c>
@@ -1379,10 +1484,16 @@
         <v>1</v>
       </c>
       <c r="J17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>110</v>
       </c>
@@ -1411,10 +1522,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>111</v>
       </c>
@@ -1443,10 +1560,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>112</v>
       </c>
@@ -1475,10 +1598,16 @@
         <v>1</v>
       </c>
       <c r="J20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>113</v>
       </c>
@@ -1507,12 +1636,18 @@
         <v>1</v>
       </c>
       <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K2:X21">
+  <conditionalFormatting sqref="M2:Z21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1527,7 +1662,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -289,6 +289,61 @@
   </si>
   <si>
     <t>叠加类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip 1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip 2级</t>
+  </si>
+  <si>
+    <t>Vip 3级</t>
+  </si>
+  <si>
+    <t>Vip 4级</t>
+  </si>
+  <si>
+    <t>Vip 5级</t>
+  </si>
+  <si>
+    <t>Vip 6级</t>
+  </si>
+  <si>
+    <t>Vip 7级</t>
+  </si>
+  <si>
+    <t>Vip 8级</t>
+  </si>
+  <si>
+    <t>Vip 9级</t>
+  </si>
+  <si>
+    <t>Vip 10级</t>
+  </si>
+  <si>
+    <t>小药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复15点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复35点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复85点HP，持续10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +374,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -386,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -398,14 +446,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -427,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,942 +792,1968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
         <v>100000</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="7">
         <v>100000</v>
       </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7">
         <v>100000</v>
       </c>
-      <c r="U2" s="6">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7">
         <v>100000</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="7">
         <v>100000</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="7">
         <v>100000</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="7">
         <v>100000</v>
       </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>100000</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="7">
         <v>100000</v>
       </c>
-      <c r="R3" s="6">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
         <v>100000</v>
       </c>
-      <c r="U3" s="6">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
         <v>100000</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="7">
         <v>100000</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="7">
         <v>100000</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="7">
         <v>100000</v>
       </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
         <v>10000</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>10000</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
         <v>10000</v>
       </c>
-      <c r="S4" s="6">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7">
         <v>10000</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="7">
         <v>10000</v>
       </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
         <v>10000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>10000</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
         <v>10000</v>
       </c>
-      <c r="S5" s="6">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
         <v>10000</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="7">
         <v>10000</v>
       </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>3</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>C17&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 1级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
         <v>100</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="N17" s="7">
+        <v>100</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>88</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" ref="D18:D26" si="0">C18&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 2级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f>M$17+B18*20</f>
+        <v>140</v>
+      </c>
+      <c r="N18" s="7">
+        <v>140</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>88</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 3级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19:M26" si="1">M$17+B19*20</f>
+        <v>160</v>
+      </c>
+      <c r="N19" s="7">
+        <v>160</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>88</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 4级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="N20" s="7">
+        <v>180</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>88</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 5级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="N21" s="7">
+        <v>200</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>88</v>
+      </c>
+      <c r="B22" s="10">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 6级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="N22" s="7">
+        <v>220</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>88</v>
+      </c>
+      <c r="B23" s="10">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 7级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="N23" s="7">
+        <v>240</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>88</v>
+      </c>
+      <c r="B24" s="10">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 8级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="N24" s="7">
+        <v>260</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>88</v>
+      </c>
+      <c r="B25" s="10">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 9级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="N25" s="7">
+        <v>280</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>88</v>
+      </c>
+      <c r="B26" s="10">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 10级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>3</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="N26" s="7">
+        <v>300</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>100</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
         <v>500</v>
       </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>101</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
         <v>500</v>
       </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>102</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
         <v>500</v>
       </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
         <v>103</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
         <v>500</v>
       </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>3</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>110</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
         <v>30000</v>
       </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>3</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
         <v>111</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
         <v>30000</v>
       </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>3</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>112</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
         <v>30000</v>
       </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>3</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
         <v>113</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
         <v>30000</v>
       </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>3</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M2:Z21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="M2:Z13 M27:Z34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:Z26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:Z16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff4号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +340,30 @@
   </si>
   <si>
     <t>每秒恢复85点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,14 +483,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -792,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -806,14 +819,15 @@
     <col min="3" max="3" width="21" style="5" customWidth="1"/>
     <col min="4" max="4" width="63.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="9.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="8.75" style="5" customWidth="1"/>
+    <col min="7" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -826,74 +840,77 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -907,16 +924,16 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -928,25 +945,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>100000</v>
-      </c>
+      <c r="O2" s="7"/>
       <c r="P2" s="7">
         <v>100000</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7">
+      <c r="Q2" s="7">
         <v>100000</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
+        <v>100000</v>
+      </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="7">
-        <v>100000</v>
-      </c>
+      <c r="U2" s="7"/>
       <c r="V2" s="7">
         <v>100000</v>
       </c>
@@ -956,10 +973,13 @@
       <c r="X2" s="7">
         <v>100000</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>100000</v>
+      </c>
       <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -967,22 +987,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -994,25 +1014,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>100000</v>
-      </c>
+      <c r="O3" s="7"/>
       <c r="P3" s="7">
         <v>100000</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
+      <c r="Q3" s="7">
         <v>100000</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7">
+        <v>100000</v>
+      </c>
       <c r="T3" s="7"/>
-      <c r="U3" s="7">
-        <v>100000</v>
-      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="7">
         <v>100000</v>
       </c>
@@ -1022,10 +1042,13 @@
       <c r="X3" s="7">
         <v>100000</v>
       </c>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="7">
+        <v>100000</v>
+      </c>
       <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1039,16 +1062,16 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -1057,37 +1080,40 @@
         <v>1</v>
       </c>
       <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
       <c r="M4" s="7">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <v>10000</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7">
+        <v>10000</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7">
         <v>10000</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7">
-        <v>10000</v>
-      </c>
+      <c r="S4" s="7"/>
       <c r="T4" s="7">
         <v>10000</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7">
+        <v>10000</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1095,22 +1121,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1119,37 +1145,40 @@
         <v>1</v>
       </c>
       <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
       <c r="M5" s="7">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <v>10000</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7">
+        <v>10000</v>
+      </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>10000</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7">
-        <v>10000</v>
-      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7">
         <v>10000</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>10000</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1157,36 +1186,38 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1200,8 +1231,9 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1209,36 +1241,38 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1252,8 +1286,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1267,30 +1302,32 @@
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1304,8 +1341,9 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1319,30 +1357,32 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="J9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1356,8 +1396,9 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1371,30 +1412,32 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1408,8 +1451,9 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1423,30 +1467,32 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
       </c>
       <c r="J11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1460,8 +1506,9 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1475,30 +1522,32 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
       </c>
       <c r="J12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1512,8 +1561,9 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1527,30 +1577,32 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1564,8 +1616,9 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>50</v>
       </c>
@@ -1573,36 +1626,38 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1616,8 +1671,9 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>50</v>
       </c>
@@ -1625,36 +1681,38 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
       </c>
       <c r="J15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1668,8 +1726,9 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>50</v>
       </c>
@@ -1677,36 +1736,38 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
       </c>
       <c r="J16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1720,8 +1781,9 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>88</v>
       </c>
@@ -1729,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>C17&amp;"级用户，具备的特权有
@@ -1740,16 +1802,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1758,18 +1820,20 @@
         <v>1</v>
       </c>
       <c r="K17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
         <v>100</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7">
+        <v>100</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1781,8 +1845,9 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>88</v>
       </c>
@@ -1790,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" ref="D18:D26" si="0">C18&amp;"级用户，具备的特权有
@@ -1801,16 +1866,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1819,19 +1884,21 @@
         <v>1</v>
       </c>
       <c r="K18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="7">
-        <f>M$17+B18*20</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f>N$17+B18*20</f>
         <v>140</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>140</v>
       </c>
-      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1843,8 +1910,9 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>88</v>
       </c>
@@ -1852,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1861,16 +1929,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1879,19 +1947,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:M26" si="1">M$17+B19*20</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" ref="N19:N26" si="1">N$17+B19*20</f>
         <v>160</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>160</v>
       </c>
-      <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -1903,8 +1973,9 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>88</v>
       </c>
@@ -1912,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1921,16 +1992,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1939,19 +2010,21 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>180</v>
       </c>
-      <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1963,8 +2036,9 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>88</v>
       </c>
@@ -1972,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1981,16 +2055,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1999,19 +2073,21 @@
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>200</v>
       </c>
-      <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2023,8 +2099,9 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>88</v>
       </c>
@@ -2032,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2041,16 +2118,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -2059,19 +2136,21 @@
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>220</v>
       </c>
-      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -2083,8 +2162,9 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>88</v>
       </c>
@@ -2092,7 +2172,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2101,16 +2181,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -2119,19 +2199,21 @@
         <v>1</v>
       </c>
       <c r="K23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>240</v>
       </c>
-      <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2143,8 +2225,9 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>88</v>
       </c>
@@ -2152,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2161,16 +2244,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -2179,19 +2262,21 @@
         <v>1</v>
       </c>
       <c r="K24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="N24" s="7">
+      <c r="O24" s="7">
         <v>260</v>
       </c>
-      <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2203,8 +2288,9 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>88</v>
       </c>
@@ -2212,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2221,16 +2307,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2239,19 +2325,21 @@
         <v>1</v>
       </c>
       <c r="K25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="N25" s="7">
+      <c r="O25" s="7">
         <v>280</v>
       </c>
-      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2263,8 +2351,9 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>88</v>
       </c>
@@ -2272,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2281,16 +2370,16 @@
 2.额外的背包格子</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -2299,19 +2388,21 @@
         <v>1</v>
       </c>
       <c r="K26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>300</v>
       </c>
-      <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2323,8 +2414,9 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>100</v>
       </c>
@@ -2338,30 +2430,32 @@
         <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
         <v>500</v>
       </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
       <c r="I27" s="7">
         <v>1</v>
       </c>
       <c r="J27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2375,8 +2469,9 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>101</v>
       </c>
@@ -2390,30 +2485,32 @@
         <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
         <v>500</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
       <c r="I28" s="7">
         <v>1</v>
       </c>
       <c r="J28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="7">
         <v>0</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2427,8 +2524,9 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>102</v>
       </c>
@@ -2442,30 +2540,32 @@
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
         <v>500</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
       <c r="I29" s="7">
         <v>1</v>
       </c>
       <c r="J29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2479,8 +2579,9 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>103</v>
       </c>
@@ -2494,30 +2595,32 @@
         <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
         <v>500</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
       <c r="I30" s="7">
         <v>1</v>
       </c>
       <c r="J30" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -2531,8 +2634,9 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>110</v>
       </c>
@@ -2546,30 +2650,32 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
         <v>30000</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
       <c r="I31" s="7">
         <v>1</v>
       </c>
       <c r="J31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="7">
         <v>0</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -2583,8 +2689,9 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA31" s="7"/>
+    </row>
+    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>111</v>
       </c>
@@ -2598,30 +2705,32 @@
         <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
         <v>30000</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
       <c r="I32" s="7">
         <v>1</v>
       </c>
       <c r="J32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -2635,8 +2744,9 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-    </row>
-    <row r="33" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA32" s="7"/>
+    </row>
+    <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>112</v>
       </c>
@@ -2650,30 +2760,32 @@
         <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
         <v>30000</v>
       </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
       <c r="I33" s="7">
         <v>1</v>
       </c>
       <c r="J33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -2687,8 +2799,9 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
-    </row>
-    <row r="34" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AA33" s="7"/>
+    </row>
+    <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>113</v>
       </c>
@@ -2702,30 +2815,32 @@
         <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
         <v>30000</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
       <c r="I34" s="7">
         <v>1</v>
       </c>
       <c r="J34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -2739,21 +2854,22 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M2:Z13 M27:Z34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="N2:AA13 N27:AA34">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:Z26">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="N17:AA26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:Z16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="N14:AA16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,178 +192,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>buff4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是buff4号的buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是buff3号的buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip 1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip 2级</t>
+  </si>
+  <si>
+    <t>Vip 3级</t>
+  </si>
+  <si>
+    <t>Vip 4级</t>
+  </si>
+  <si>
+    <t>Vip 5级</t>
+  </si>
+  <si>
+    <t>Vip 6级</t>
+  </si>
+  <si>
+    <t>Vip 7级</t>
+  </si>
+  <si>
+    <t>Vip 8级</t>
+  </si>
+  <si>
+    <t>Vip 9级</t>
+  </si>
+  <si>
+    <t>Vip 10级</t>
+  </si>
+  <si>
+    <t>小药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复15点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复35点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复85点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是buff4号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是buff3号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对必杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叠加ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叠加类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vip 1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vip 2级</t>
-  </si>
-  <si>
-    <t>Vip 3级</t>
-  </si>
-  <si>
-    <t>Vip 4级</t>
-  </si>
-  <si>
-    <t>Vip 5级</t>
-  </si>
-  <si>
-    <t>Vip 6级</t>
-  </si>
-  <si>
-    <t>Vip 7级</t>
-  </si>
-  <si>
-    <t>Vip 8级</t>
-  </si>
-  <si>
-    <t>Vip 9级</t>
-  </si>
-  <si>
-    <t>Vip 10级</t>
-  </si>
-  <si>
-    <t>小药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒恢复15点HP，持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒恢复35点HP，持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒恢复85点HP，持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill2</t>
+    <t>增加角色的血量上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -479,6 +499,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,7 +848,7 @@
     <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -840,11 +861,11 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>86</v>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
@@ -859,58 +880,70 @@
         <v>19</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -924,10 +957,10 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -952,34 +985,38 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7">
         <v>100000</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7">
         <v>100000</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7">
-        <v>100000</v>
-      </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="7">
-        <v>100000</v>
-      </c>
+      <c r="V2" s="7"/>
       <c r="W2" s="7">
         <v>100000</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7">
         <v>100000</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="AA2" s="7">
         <v>100000</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -987,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -1021,34 +1058,38 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
         <v>100000</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7">
         <v>100000</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7">
-        <v>100000</v>
-      </c>
-      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7">
-        <v>100000</v>
-      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="7">
         <v>100000</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7">
         <v>100000</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="AA3" s="7">
         <v>100000</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1062,10 +1103,10 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -1091,29 +1132,33 @@
       <c r="N4" s="7">
         <v>10000</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <v>10000</v>
       </c>
-      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7">
         <v>10000</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7">
+      <c r="W4" s="7"/>
+      <c r="X4" s="7">
         <v>10000</v>
       </c>
-      <c r="U4" s="7">
+      <c r="Y4" s="7">
         <v>10000</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1121,16 +1166,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -1156,29 +1201,33 @@
       <c r="N5" s="7">
         <v>10000</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>10000</v>
       </c>
-      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>10000</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>10000</v>
       </c>
-      <c r="U5" s="7">
+      <c r="Y5" s="7">
         <v>10000</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1186,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1232,8 +1281,12 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1241,16 +1294,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1287,8 +1340,12 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1302,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1342,8 +1399,12 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1357,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1397,8 +1458,12 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1412,10 +1477,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1452,8 +1517,12 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1467,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1507,8 +1576,12 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+    </row>
+    <row r="12" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1522,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -1562,8 +1635,12 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1577,10 +1654,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -1617,8 +1694,12 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>50</v>
       </c>
@@ -1626,16 +1707,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
@@ -1672,8 +1753,12 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>50</v>
       </c>
@@ -1681,16 +1766,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -1727,8 +1812,12 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>50</v>
       </c>
@@ -1736,16 +1825,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -1782,8 +1871,12 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>88</v>
       </c>
@@ -1791,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>C17&amp;"级用户，具备的特权有
@@ -1802,10 +1895,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1831,10 +1924,10 @@
       <c r="N17" s="7">
         <v>100</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
         <v>100</v>
       </c>
-      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -1846,8 +1939,12 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-    </row>
-    <row r="18" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>88</v>
       </c>
@@ -1855,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" ref="D18:D26" si="0">C18&amp;"级用户，具备的特权有
@@ -1866,10 +1963,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -1896,10 +1993,10 @@
         <f>N$17+B18*20</f>
         <v>140</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
         <v>140</v>
       </c>
-      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1911,8 +2008,12 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>88</v>
       </c>
@@ -1920,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1929,10 +2030,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -1959,10 +2060,10 @@
         <f t="shared" ref="N19:N26" si="1">N$17+B19*20</f>
         <v>160</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
         <v>160</v>
       </c>
-      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -1974,8 +2075,12 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>88</v>
       </c>
@@ -1983,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1992,10 +2097,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -2022,10 +2127,10 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
         <v>180</v>
       </c>
-      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2037,8 +2142,12 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>88</v>
       </c>
@@ -2046,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2055,10 +2164,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2085,10 +2194,10 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
         <v>200</v>
       </c>
-      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -2100,8 +2209,12 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-    </row>
-    <row r="22" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>88</v>
       </c>
@@ -2109,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2118,10 +2231,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -2148,10 +2261,10 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
         <v>220</v>
       </c>
-      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2163,8 +2276,12 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>88</v>
       </c>
@@ -2172,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2181,10 +2298,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
@@ -2211,10 +2328,10 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <v>240</v>
       </c>
-      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -2226,8 +2343,12 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-    </row>
-    <row r="24" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>88</v>
       </c>
@@ -2235,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2244,10 +2365,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
@@ -2274,10 +2395,10 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <v>260</v>
       </c>
-      <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2289,8 +2410,12 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-    </row>
-    <row r="25" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>88</v>
       </c>
@@ -2298,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2307,10 +2432,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2337,10 +2462,10 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
         <v>280</v>
       </c>
-      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2352,8 +2477,12 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-    </row>
-    <row r="26" spans="1:27" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>88</v>
       </c>
@@ -2361,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2370,10 +2499,10 @@
 2.额外的背包格子</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -2400,10 +2529,10 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7">
         <v>300</v>
       </c>
-      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2415,8 +2544,12 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-    </row>
-    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>100</v>
       </c>
@@ -2430,10 +2563,10 @@
         <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -2457,7 +2590,9 @@
         <v>0</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="7">
+        <v>1000</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2470,8 +2605,12 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>101</v>
       </c>
@@ -2485,10 +2624,10 @@
         <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -2525,8 +2664,12 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-    </row>
-    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>102</v>
       </c>
@@ -2540,10 +2683,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -2580,8 +2723,12 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
-    </row>
-    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>103</v>
       </c>
@@ -2595,10 +2742,10 @@
         <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -2635,8 +2782,12 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-    </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>110</v>
       </c>
@@ -2650,10 +2801,10 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -2690,8 +2841,12 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-    </row>
-    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>111</v>
       </c>
@@ -2705,10 +2860,10 @@
         <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
@@ -2745,8 +2900,12 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-    </row>
-    <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>112</v>
       </c>
@@ -2760,10 +2919,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -2800,8 +2959,12 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-    </row>
-    <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+    </row>
+    <row r="34" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>113</v>
       </c>
@@ -2815,10 +2978,10 @@
         <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -2855,20 +3018,24 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AA13 N27:AA34">
+  <conditionalFormatting sqref="N2:AE13 N27:AE34">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:AA26">
+  <conditionalFormatting sqref="N17:AE26">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:AA16">
+  <conditionalFormatting sqref="N14:AE16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2880,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2954,6 +3121,176 @@
       </c>
       <c r="B8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"增加角色的"&amp;A10&amp;"上限"</f>
+        <v>增加角色的物攻上限</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ref="B11:B27" si="0">"增加角色的"&amp;A11&amp;"上限"</f>
+        <v>增加角色的物攻百分比上限</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的魔攻上限</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的魔攻百分比上限</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的物防上限</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的物防百分比上限</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的魔防上限</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的魔防百分比上限</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的命中上限</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的闪避上限</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的致命上限</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的暴击上限</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的格挡上限</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的物免上限</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的魔免上限</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的反伤上限</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的移动速度上限</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>增加角色的攻击速度上限</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>增加角色的血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升400%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +528,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -826,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1876,29 +1914,24 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+    <row r="17" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <f>C17&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 1级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1913,21 +1946,17 @@
         <v>1</v>
       </c>
       <c r="K17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>100</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>100</v>
-      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -1944,29 +1973,24 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+    <row r="18" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f t="shared" ref="D18:D26" si="0">C18&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 2级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -1981,22 +2005,17 @@
         <v>1</v>
       </c>
       <c r="K18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <f>N$17+B18*20</f>
-        <v>140</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>140</v>
-      </c>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -2013,27 +2032,24 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
     </row>
-    <row r="19" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+    <row r="19" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="10">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 3级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -2048,22 +2064,17 @@
         <v>1</v>
       </c>
       <c r="K19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" ref="N19:N26" si="1">N$17+B19*20</f>
-        <v>160</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>160</v>
-      </c>
+      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2085,14 +2096,16 @@
         <v>88</v>
       </c>
       <c r="B20" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 4级级用户，具备的特权有
+        <f>C20&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 1级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2124,12 +2137,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2152,14 +2164,16 @@
         <v>88</v>
       </c>
       <c r="B21" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 5级级用户，具备的特权有
+        <f t="shared" ref="D21:D29" si="0">C21&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 2级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2191,12 +2205,12 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f>N$20+B21*20</f>
+        <v>140</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2219,14 +2233,14 @@
         <v>88</v>
       </c>
       <c r="B22" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Vip 6级级用户，具备的特权有
+        <v>Vip 3级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2258,12 +2272,12 @@
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <f>N$20+B22*20</f>
+        <v>160</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -2286,14 +2300,14 @@
         <v>88</v>
       </c>
       <c r="B23" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Vip 7级级用户，具备的特权有
+        <v>Vip 4级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2325,12 +2339,12 @@
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f>N$20+B23*20</f>
+        <v>180</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2353,14 +2367,14 @@
         <v>88</v>
       </c>
       <c r="B24" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Vip 8级级用户，具备的特权有
+        <v>Vip 5级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2392,12 +2406,12 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>260</v>
+        <f>N$20+B24*20</f>
+        <v>200</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2420,14 +2434,14 @@
         <v>88</v>
       </c>
       <c r="B25" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Vip 9级级用户，具备的特权有
+        <v>Vip 6级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2459,12 +2473,12 @@
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="1"/>
-        <v>280</v>
+        <f>N$20+B25*20</f>
+        <v>220</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2487,14 +2501,14 @@
         <v>88</v>
       </c>
       <c r="B26" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Vip 10级级用户，具备的特权有
+        <v>Vip 7级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
@@ -2526,12 +2540,12 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f>N$20+B26*20</f>
+        <v>240</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2549,18 +2563,21 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>100</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>32</v>
+    <row r="27" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>88</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 8级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>87</v>
@@ -2572,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -2581,19 +2598,22 @@
         <v>1</v>
       </c>
       <c r="K27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P27" s="7"/>
+      <c r="N27" s="7">
+        <f>N$20+B27*20</f>
+        <v>260</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7">
+        <v>260</v>
+      </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -2610,18 +2630,21 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>101</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>33</v>
+    <row r="28" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>88</v>
+      </c>
+      <c r="B28" s="10">
+        <v>9</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 9级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>87</v>
@@ -2633,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -2642,17 +2665,22 @@
         <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7">
+        <f>N$20+B28*20</f>
+        <v>280</v>
+      </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="7">
+        <v>280</v>
+      </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2669,18 +2697,21 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>102</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
+    <row r="29" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>88</v>
+      </c>
+      <c r="B29" s="10">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vip 10级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>87</v>
@@ -2692,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2701,17 +2732,22 @@
         <v>1</v>
       </c>
       <c r="K29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="7">
+        <f>N$20+B29*20</f>
+        <v>300</v>
+      </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="7">
+        <v>300</v>
+      </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -2730,16 +2766,16 @@
     </row>
     <row r="30" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>87</v>
@@ -2769,7 +2805,9 @@
         <v>0</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7">
+        <v>1000</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -2789,16 +2827,16 @@
     </row>
     <row r="31" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>87</v>
@@ -2810,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="7">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -2848,16 +2886,16 @@
     </row>
     <row r="32" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>87</v>
@@ -2869,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="7">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -2907,16 +2945,16 @@
     </row>
     <row r="33" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>87</v>
@@ -2928,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2966,16 +3004,16 @@
     </row>
     <row r="34" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>87</v>
@@ -3023,20 +3061,202 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
     </row>
+    <row r="35" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>111</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7">
+        <v>3</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+    </row>
+    <row r="36" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>112</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+    </row>
+    <row r="37" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>113</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <v>3</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AE13 N27:AE34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="N2:AE13 N30:AE37">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:AE26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="N20:AE29">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:AE16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:AE19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -528,14 +528,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -578,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1701,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1760,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
@@ -1819,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1878,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1937,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1996,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2055,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -2205,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <f>N$20+B21*20</f>
+        <f t="shared" ref="N21:N29" si="1">N$20+B21*20</f>
         <v>140</v>
       </c>
       <c r="O21" s="7"/>
@@ -2272,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <f>N$20+B22*20</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="O22" s="7"/>
@@ -2339,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <f>N$20+B23*20</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="O23" s="7"/>
@@ -2406,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <f>N$20+B24*20</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="O24" s="7"/>
@@ -2473,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <f>N$20+B25*20</f>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="O25" s="7"/>
@@ -2540,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <f>N$20+B26*20</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="O26" s="7"/>
@@ -2607,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <f>N$20+B27*20</f>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="O27" s="7"/>
@@ -2674,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="7">
-        <f>N$20+B28*20</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="O28" s="7"/>
@@ -2741,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="7">
-        <f>N$20+B29*20</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="O29" s="7"/>
@@ -3241,22 +3234,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:AE13 N30:AE37">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:AE29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:AE16">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:AE19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是buff3号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绝对必杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,22 +307,102 @@
     <t>Vip 10级</t>
   </si>
   <si>
-    <t>小药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每秒恢复15点HP，持续10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>buff路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加角色的血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每秒恢复35点HP，持续10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,75 +411,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加角色的血量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升400%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升400%</t>
+    <t>每秒恢复150点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复200点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升1600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升1600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为50000点的血池
+2.每5秒恢复500点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为250000点的血池
+2.每5秒恢复1000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为1250000点的血池
+2.每5秒恢复2000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为6250000点的血池
+2.每5秒恢复4000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为30000000点的血池
+2.每5秒恢复6000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御神符（小）</t>
+  </si>
+  <si>
+    <t>防御神符（中）</t>
+  </si>
+  <si>
+    <t>防御神符（大）</t>
+  </si>
+  <si>
+    <t>暴击神符（小）</t>
+  </si>
+  <si>
+    <t>暴击神符（中）</t>
+  </si>
+  <si>
+    <t>暴击神符（大）</t>
+  </si>
+  <si>
+    <t>闪避神符（小）</t>
+  </si>
+  <si>
+    <t>闪避神符（中）</t>
+  </si>
+  <si>
+    <t>闪避神符（大）</t>
+  </si>
+  <si>
+    <t>中毒（轻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少10点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒（重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少30点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少50点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（轻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻万分比</t>
+  </si>
+  <si>
+    <t>魔攻万分比</t>
+  </si>
+  <si>
+    <t>物防万分比</t>
+  </si>
+  <si>
+    <t>魔防万分比</t>
+  </si>
+  <si>
+    <t>禁止传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该BUFF下无法跳转离开本场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +636,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,10 +689,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -518,17 +715,241 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -864,18 +1285,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21" style="15" customWidth="1"/>
     <col min="4" max="4" width="63.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="5" customWidth="1"/>
@@ -887,23 +1308,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
@@ -918,87 +1339,87 @@
         <v>19</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="2" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -1055,23 +1476,23 @@
       <c r="AE2" s="7"/>
     </row>
     <row r="3" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -1128,23 +1549,23 @@
       <c r="AE3" s="7"/>
     </row>
     <row r="4" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -1197,23 +1618,23 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -1266,23 +1687,23 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1325,23 +1746,23 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1384,23 +1805,23 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1443,23 +1864,23 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1502,23 +1923,23 @@
       <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1561,23 +1982,23 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1620,23 +2041,23 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -1679,23 +2100,23 @@
       <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -1737,83 +2158,83 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+    <row r="14" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
         <v>50</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="13">
         <v>50</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
+      <c r="C15" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -1856,23 +2277,23 @@
       <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="13">
         <v>50</v>
       </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -1915,23 +2336,23 @@
       <c r="AE16" s="7"/>
     </row>
     <row r="17" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>51</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
+      <c r="A17" s="13">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1974,23 +2395,23 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>98</v>
+      <c r="A18" s="13">
+        <v>50</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -2033,23 +2454,23 @@
       <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="13">
         <v>51</v>
       </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>99</v>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -2091,29 +2512,24 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
     </row>
-    <row r="20" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>88</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f>C20&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 1级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="20" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -2128,21 +2544,17 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>100</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7">
-        <v>100</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2159,29 +2571,24 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
     </row>
-    <row r="21" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>88</v>
-      </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f t="shared" ref="D21:D29" si="0">C21&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 2级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="21" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2196,22 +2603,17 @@
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <f>N$20+B21*20</f>
-        <v>140</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>140</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -2228,27 +2630,24 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>88</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 3级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="22" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -2263,22 +2662,17 @@
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <f>N$20+B22*20</f>
-        <v>160</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>160</v>
-      </c>
+      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2295,27 +2689,24 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
     </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>88</v>
-      </c>
-      <c r="B23" s="10">
-        <v>4</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 4级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="23" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
@@ -2330,22 +2721,17 @@
         <v>1</v>
       </c>
       <c r="K23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <f>N$20+B23*20</f>
-        <v>180</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>180</v>
-      </c>
+      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -2362,94 +2748,83 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
     </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>88</v>
-      </c>
-      <c r="B24" s="10">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 5级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7">
-        <v>3</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <f>N$20+B24*20</f>
-        <v>200</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>88</v>
-      </c>
-      <c r="B25" s="10">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 6级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="24" spans="1:31" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>52</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>52</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2464,22 +2839,17 @@
         <v>1</v>
       </c>
       <c r="K25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <f>N$20+B25*20</f>
-        <v>220</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7">
-        <v>220</v>
-      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2496,27 +2866,24 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>88</v>
-      </c>
-      <c r="B26" s="10">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 7级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="26" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -2531,22 +2898,17 @@
         <v>1</v>
       </c>
       <c r="K26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <f>N$20+B26*20</f>
-        <v>240</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7">
-        <v>240</v>
-      </c>
+      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2563,27 +2925,24 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>88</v>
-      </c>
-      <c r="B27" s="10">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 8级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="27" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>52</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -2598,22 +2957,17 @@
         <v>1</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <f>N$20+B27*20</f>
-        <v>260</v>
-      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7">
-        <v>260</v>
-      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -2630,27 +2984,24 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>88</v>
-      </c>
-      <c r="B28" s="10">
-        <v>9</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 9级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="28" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13">
+        <v>5</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -2665,22 +3016,17 @@
         <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <f>N$20+B28*20</f>
-        <v>280</v>
-      </c>
+      <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7">
-        <v>280</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2697,27 +3043,27 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>88</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 10级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="29" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(O29/10000,"0%")&amp;"的物攻和魔攻"</f>
+        <v>【说明】
+1分钟内提升10%的物攻和魔攻</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -2732,23 +3078,22 @@
         <v>1</v>
       </c>
       <c r="K29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <f>N$20+B29*20</f>
-        <v>300</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1000</v>
+      </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2764,30 +3109,33 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>100</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>32</v>
+    <row r="30" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>52</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" ref="D30:D40" si="0">"【说明】
+1分钟内提升"&amp;TEXT(O30/10000,"0%")&amp;"的物攻和魔攻"</f>
+        <v>【说明】
+1分钟内提升20%的物攻和魔攻</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -2806,10 +3154,12 @@
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>2000</v>
+      </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2825,30 +3175,32 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>101</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>33</v>
+    <row r="31" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>52</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>【说明】
+1分钟内提升30%的物攻和魔攻</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
       </c>
       <c r="H31" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -2866,9 +3218,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="7">
+        <v>3000</v>
+      </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7">
+        <v>3000</v>
+      </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -2884,30 +3240,33 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>102</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>34</v>
+    <row r="32" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>53</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(S32/10000,"0%")&amp;"的物防和魔防"</f>
+        <v>【说明】
+1分钟内提升10%的物防和魔防</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -2929,9 +3288,13 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>1000</v>
+      </c>
       <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>1000</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -2943,30 +3306,33 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
     </row>
-    <row r="33" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>103</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>35</v>
+    <row r="33" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>53</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f t="shared" ref="D33:D34" si="1">"【说明】
+1分钟内提升"&amp;TEXT(S33/10000,"0%")&amp;"的物防和魔防"</f>
+        <v>【说明】
+1分钟内提升20%的物防和魔防</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2988,9 +3354,13 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7">
+        <v>2000</v>
+      </c>
       <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
+      <c r="U33" s="7">
+        <v>2000</v>
+      </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
@@ -3002,30 +3372,32 @@
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
     </row>
-    <row r="34" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>110</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
+    <row r="34" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>53</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>【说明】
+1分钟内提升30%的物防和魔防</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
       </c>
       <c r="H34" s="7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -3047,9 +3419,13 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7">
+        <v>3000</v>
+      </c>
       <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>3000</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -3061,30 +3437,33 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
     </row>
-    <row r="35" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>111</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
+    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(Y35/10000,"0%")&amp;"的暴击"</f>
+        <v>【说明】
+1分钟内提升10%的暴击</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -3112,7 +3491,9 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
+      <c r="Y35" s="7">
+        <v>1000</v>
+      </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3120,30 +3501,33 @@
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
     </row>
-    <row r="36" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>112</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>42</v>
+    <row r="36" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>54</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="20" t="str">
+        <f t="shared" ref="D36:D37" si="2">"【说明】
+1分钟内提升"&amp;TEXT(Y36/10000,"0%")&amp;"的暴击"</f>
+        <v>【说明】
+1分钟内提升20%的暴击</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
       </c>
       <c r="H36" s="7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -3171,7 +3555,9 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>2000</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3179,30 +3565,32 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
     </row>
-    <row r="37" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>113</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>43</v>
+    <row r="37" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>【说明】
+1分钟内提升30%的暴击</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -3230,7 +3618,9 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="Y37" s="7">
+        <v>3000</v>
+      </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -3238,24 +3628,1786 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
     </row>
+    <row r="38" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>55</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(X38/10000,"0%")&amp;"的闪避"</f>
+        <v>【说明】
+1分钟内提升10%的闪避</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7">
+        <v>3</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+    </row>
+    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>55</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="20" t="str">
+        <f t="shared" ref="D39:D40" si="3">"【说明】
+1分钟内提升"&amp;TEXT(X39/10000,"0%")&amp;"的闪避"</f>
+        <v>【说明】
+1分钟内提升20%的闪避</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+    </row>
+    <row r="40" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>55</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>【说明】
+1分钟内提升30%的闪避</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>3</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+    </row>
+    <row r="41" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>56</v>
+      </c>
+      <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+    </row>
+    <row r="42" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>56</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>3</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>3</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>57</v>
+      </c>
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+      <c r="K44" s="8">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+    </row>
+    <row r="45" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>57</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+    </row>
+    <row r="46" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>57</v>
+      </c>
+      <c r="B46" s="13">
+        <v>3</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>88</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f>C47&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 1级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="7">
+        <v>3</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>100</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+    </row>
+    <row r="48" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>88</v>
+      </c>
+      <c r="B48" s="14">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f t="shared" ref="D48:D56" si="4">C48&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 2级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7">
+        <v>3</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" ref="N48:N56" si="5">N$47+B48*20</f>
+        <v>140</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
+        <v>140</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+    </row>
+    <row r="49" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
+        <v>88</v>
+      </c>
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 3级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7">
+        <v>3</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7">
+        <v>160</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+    </row>
+    <row r="50" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>88</v>
+      </c>
+      <c r="B50" s="14">
+        <v>4</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 4级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7">
+        <v>3</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7">
+        <v>180</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+    </row>
+    <row r="51" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
+        <v>88</v>
+      </c>
+      <c r="B51" s="14">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 5级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7">
+        <v>3</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+    </row>
+    <row r="52" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>88</v>
+      </c>
+      <c r="B52" s="14">
+        <v>6</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 6级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="7">
+        <v>3</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7">
+        <v>220</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+    </row>
+    <row r="53" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="14">
+        <v>88</v>
+      </c>
+      <c r="B53" s="14">
+        <v>7</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 7级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
+        <v>3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7">
+        <v>240</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+    </row>
+    <row r="54" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>88</v>
+      </c>
+      <c r="B54" s="14">
+        <v>8</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 8级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <v>3</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7">
+        <v>260</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+    </row>
+    <row r="55" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="14">
+        <v>88</v>
+      </c>
+      <c r="B55" s="14">
+        <v>9</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 9级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>3</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7">
+        <v>280</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+    </row>
+    <row r="56" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>88</v>
+      </c>
+      <c r="B56" s="14">
+        <v>10</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 10级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <v>3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+    </row>
+    <row r="57" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>100</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>500</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+    </row>
+    <row r="58" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>101</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
+        <v>500</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7">
+        <v>3</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>102</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>500</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+    </row>
+    <row r="60" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>103</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>500</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7">
+        <v>3</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+    </row>
+    <row r="61" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>110</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7">
+        <v>3</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+    </row>
+    <row r="62" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="13">
+        <v>111</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62" s="7">
+        <v>3</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+    </row>
+    <row r="63" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>112</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+      <c r="J63" s="7">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+    </row>
+    <row r="64" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="13">
+        <v>113</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AE13 N30:AE37">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="N2:AE13 N57:AE64">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:AE29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="N47:AE56">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:AE16">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="N14:AE18">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:AE19">
+  <conditionalFormatting sqref="N19:AE21">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:AE23">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:AE26">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:AE28">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:AE31">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:R34 V32:AE34">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:X37 Z35:AE37">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:W40 Y38:AE40">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:AE41">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:AE43">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:AE44">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45:AE46">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:U34">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35:Y37">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:X40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3345,15 +5497,15 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="str">
         <f>"增加角色的"&amp;A10&amp;"上限"</f>
@@ -3361,8 +5513,8 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>91</v>
+      <c r="A11" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ref="B11:B27" si="0">"增加角色的"&amp;A11&amp;"上限"</f>
@@ -3371,7 +5523,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -3379,8 +5531,8 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>92</v>
+      <c r="A13" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -3389,7 +5541,7 @@
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -3397,8 +5549,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>93</v>
+      <c r="A15" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -3407,7 +5559,7 @@
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -3415,8 +5567,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>94</v>
+      <c r="A17" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -3425,7 +5577,7 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -3434,7 +5586,7 @@
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -3443,7 +5595,7 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -3452,7 +5604,7 @@
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -3461,7 +5613,7 @@
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -3470,7 +5622,7 @@
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -3479,7 +5631,7 @@
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -3488,7 +5640,7 @@
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3497,7 +5649,7 @@
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3506,7 +5658,7 @@
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是buff3号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绝对必杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,22 +307,102 @@
     <t>Vip 10级</t>
   </si>
   <si>
-    <t>小药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每秒恢复15点HP，持续10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>buff路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加角色的血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每秒恢复35点HP，持续10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,75 +411,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加角色的血量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升400%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后10分钟打怪效率提升400%</t>
+    <t>每秒恢复150点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复200点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升1600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后10分钟打怪效率提升1600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为50000点的血池
+2.每5秒恢复500点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为250000点的血池
+2.每5秒恢复1000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为1250000点的血池
+2.每5秒恢复2000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为6250000点的血池
+2.每5秒恢复4000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为30000000点的血池
+2.每5秒恢复6000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御神符（小）</t>
+  </si>
+  <si>
+    <t>防御神符（中）</t>
+  </si>
+  <si>
+    <t>防御神符（大）</t>
+  </si>
+  <si>
+    <t>暴击神符（小）</t>
+  </si>
+  <si>
+    <t>暴击神符（中）</t>
+  </si>
+  <si>
+    <t>暴击神符（大）</t>
+  </si>
+  <si>
+    <t>闪避神符（小）</t>
+  </si>
+  <si>
+    <t>闪避神符（中）</t>
+  </si>
+  <si>
+    <t>闪避神符（大）</t>
+  </si>
+  <si>
+    <t>中毒（轻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少10点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒（重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少30点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下每秒减少50点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（轻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻（重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻万分比</t>
+  </si>
+  <si>
+    <t>魔攻万分比</t>
+  </si>
+  <si>
+    <t>物防万分比</t>
+  </si>
+  <si>
+    <t>魔防万分比</t>
+  </si>
+  <si>
+    <t>禁止传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该BUFF下无法跳转离开本场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓40%，持续4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓20%，持续4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+buff状态下移动速度减缓80%，持续4秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +636,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,10 +689,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -518,17 +715,136 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -571,7 +887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,18 +1173,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16:H19"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21" style="15" customWidth="1"/>
     <col min="4" max="4" width="63.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="5" customWidth="1"/>
@@ -880,23 +1196,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
@@ -911,87 +1227,87 @@
         <v>19</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="2" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -1048,23 +1364,23 @@
       <c r="AE2" s="7"/>
     </row>
     <row r="3" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -1121,23 +1437,23 @@
       <c r="AE3" s="7"/>
     </row>
     <row r="4" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -1190,23 +1506,23 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -1259,23 +1575,23 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1318,23 +1634,23 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1377,23 +1693,23 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1436,23 +1752,23 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1495,23 +1811,23 @@
       <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1554,23 +1870,23 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1613,23 +1929,23 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -1672,29 +1988,29 @@
       <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1730,83 +2046,83 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+    <row r="14" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
         <v>50</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
         <v>10</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="13">
         <v>50</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
+      <c r="C15" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -1849,29 +2165,29 @@
       <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="13">
         <v>50</v>
       </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1908,29 +2224,29 @@
       <c r="AE16" s="7"/>
     </row>
     <row r="17" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>51</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
+      <c r="A17" s="13">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1967,29 +2283,29 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>98</v>
+      <c r="A18" s="13">
+        <v>50</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2026,23 +2342,23 @@
       <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="13">
         <v>51</v>
       </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>99</v>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -2084,35 +2400,30 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
     </row>
-    <row r="20" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>88</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f>C20&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 1级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="20" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -2121,21 +2432,17 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>100</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7">
-        <v>100</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2152,35 +2459,30 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
     </row>
-    <row r="21" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>88</v>
-      </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f t="shared" ref="D21:D29" si="0">C21&amp;"级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子"</f>
-        <v>Vip 2级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="21" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2189,22 +2491,17 @@
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <f t="shared" ref="N21:N29" si="1">N$20+B21*20</f>
-        <v>140</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>140</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -2221,33 +2518,30 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>88</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 3级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="22" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -2256,22 +2550,17 @@
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>160</v>
-      </c>
+      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2288,33 +2577,30 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
     </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>88</v>
-      </c>
-      <c r="B23" s="10">
-        <v>4</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 4级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="23" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -2323,22 +2609,17 @@
         <v>1</v>
       </c>
       <c r="K23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>180</v>
-      </c>
+      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -2355,94 +2636,83 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
     </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>88</v>
-      </c>
-      <c r="B24" s="10">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 5级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7">
-        <v>3</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>88</v>
-      </c>
-      <c r="B25" s="10">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 6级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="24" spans="1:31" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>52</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>52</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2457,22 +2727,17 @@
         <v>1</v>
       </c>
       <c r="K25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7">
-        <v>220</v>
-      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2489,27 +2754,24 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>88</v>
-      </c>
-      <c r="B26" s="10">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 7级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="26" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -2524,22 +2786,17 @@
         <v>1</v>
       </c>
       <c r="K26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7">
-        <v>240</v>
-      </c>
+      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2556,27 +2813,24 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>88</v>
-      </c>
-      <c r="B27" s="10">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 8级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="27" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>52</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -2591,22 +2845,17 @@
         <v>1</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7">
-        <v>260</v>
-      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -2623,27 +2872,24 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>88</v>
-      </c>
-      <c r="B28" s="10">
-        <v>9</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 9级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="28" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13">
+        <v>5</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -2658,22 +2904,17 @@
         <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
+      <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7">
-        <v>280</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2690,33 +2931,33 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>88</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Vip 10级级用户，具备的特权有
-1.每日副本次数增加
-2.额外的背包格子</v>
+    <row r="29" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(O29/10000,"0%")&amp;"的物攻和魔攻"</f>
+        <v>【说明】
+1分钟内提升10%的物攻和魔攻</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2725,23 +2966,22 @@
         <v>1</v>
       </c>
       <c r="K29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1000</v>
+      </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2757,30 +2997,33 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>100</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>32</v>
+    <row r="30" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>52</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" ref="D30:D31" si="0">"【说明】
+1分钟内提升"&amp;TEXT(O30/10000,"0%")&amp;"的物攻和魔攻"</f>
+        <v>【说明】
+1分钟内提升20%的物攻和魔攻</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -2799,10 +3042,12 @@
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>2000</v>
+      </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2818,30 +3063,32 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>101</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>33</v>
+    <row r="31" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>52</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>【说明】
+1分钟内提升30%的物攻和魔攻</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
       </c>
       <c r="H31" s="7">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -2859,9 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="7">
+        <v>3000</v>
+      </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7">
+        <v>3000</v>
+      </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -2877,30 +3128,33 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>102</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>34</v>
+    <row r="32" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>53</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(S32/10000,"0%")&amp;"的物防和魔防"</f>
+        <v>【说明】
+1分钟内提升10%的物防和魔防</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="7">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -2922,9 +3176,13 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>1000</v>
+      </c>
       <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>1000</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -2936,30 +3194,33 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
     </row>
-    <row r="33" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>103</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>35</v>
+    <row r="33" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>53</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f t="shared" ref="D33:D34" si="1">"【说明】
+1分钟内提升"&amp;TEXT(S33/10000,"0%")&amp;"的物防和魔防"</f>
+        <v>【说明】
+1分钟内提升20%的物防和魔防</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2981,9 +3242,13 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7">
+        <v>2000</v>
+      </c>
       <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
+      <c r="U33" s="7">
+        <v>2000</v>
+      </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
@@ -2995,30 +3260,32 @@
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
     </row>
-    <row r="34" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>110</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
+    <row r="34" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>53</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>【说明】
+1分钟内提升30%的物防和魔防</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
       </c>
       <c r="H34" s="7">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -3040,9 +3307,13 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7">
+        <v>3000</v>
+      </c>
       <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>3000</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -3054,30 +3325,33 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
     </row>
-    <row r="35" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>111</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
+    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(Y35/10000,"0%")&amp;"的暴击"</f>
+        <v>【说明】
+1分钟内提升10%的暴击</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="7">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -3105,7 +3379,9 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
+      <c r="Y35" s="7">
+        <v>1000</v>
+      </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3113,30 +3389,33 @@
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
     </row>
-    <row r="36" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>112</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>42</v>
+    <row r="36" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>54</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="20" t="str">
+        <f t="shared" ref="D36:D37" si="2">"【说明】
+1分钟内提升"&amp;TEXT(Y36/10000,"0%")&amp;"的暴击"</f>
+        <v>【说明】
+1分钟内提升20%的暴击</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
       </c>
       <c r="H36" s="7">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -3164,7 +3443,9 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>2000</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3172,30 +3453,32 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
     </row>
-    <row r="37" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>113</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>43</v>
+    <row r="37" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>【说明】
+1分钟内提升30%的暴击</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="7">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -3223,7 +3506,9 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="Y37" s="7">
+        <v>3000</v>
+      </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -3231,24 +3516,1786 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
     </row>
+    <row r="38" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>55</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="20" t="str">
+        <f>"【说明】
+1分钟内提升"&amp;TEXT(X38/10000,"0%")&amp;"的闪避"</f>
+        <v>【说明】
+1分钟内提升10%的闪避</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>60</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7">
+        <v>3</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+    </row>
+    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>55</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="20" t="str">
+        <f t="shared" ref="D39:D40" si="3">"【说明】
+1分钟内提升"&amp;TEXT(X39/10000,"0%")&amp;"的闪避"</f>
+        <v>【说明】
+1分钟内提升20%的闪避</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>60</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+    </row>
+    <row r="40" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>55</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>【说明】
+1分钟内提升30%的闪避</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>60</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>3</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+    </row>
+    <row r="41" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>56</v>
+      </c>
+      <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8">
+        <v>10</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+    </row>
+    <row r="42" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>56</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>3</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>10</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>3</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>57</v>
+      </c>
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8">
+        <v>4</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+      <c r="K44" s="8">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+    </row>
+    <row r="45" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>57</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+    </row>
+    <row r="46" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>57</v>
+      </c>
+      <c r="B46" s="13">
+        <v>3</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>4</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>88</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f>C47&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 1级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="7">
+        <v>3</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>100</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+    </row>
+    <row r="48" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>88</v>
+      </c>
+      <c r="B48" s="14">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f t="shared" ref="D48:D56" si="4">C48&amp;"级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子"</f>
+        <v>Vip 2级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7">
+        <v>3</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" ref="N48:N56" si="5">N$47+B48*20</f>
+        <v>140</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
+        <v>140</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+    </row>
+    <row r="49" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
+        <v>88</v>
+      </c>
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 3级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7">
+        <v>3</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7">
+        <v>160</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+    </row>
+    <row r="50" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>88</v>
+      </c>
+      <c r="B50" s="14">
+        <v>4</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 4级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7">
+        <v>3</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7">
+        <v>180</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+    </row>
+    <row r="51" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
+        <v>88</v>
+      </c>
+      <c r="B51" s="14">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 5级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7">
+        <v>3</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+    </row>
+    <row r="52" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>88</v>
+      </c>
+      <c r="B52" s="14">
+        <v>6</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 6级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="7">
+        <v>3</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7">
+        <v>220</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+    </row>
+    <row r="53" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="14">
+        <v>88</v>
+      </c>
+      <c r="B53" s="14">
+        <v>7</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 7级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
+        <v>3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7">
+        <v>240</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+    </row>
+    <row r="54" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>88</v>
+      </c>
+      <c r="B54" s="14">
+        <v>8</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 8级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <v>3</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7">
+        <v>260</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+    </row>
+    <row r="55" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="14">
+        <v>88</v>
+      </c>
+      <c r="B55" s="14">
+        <v>9</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 9级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>3</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7">
+        <v>280</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+    </row>
+    <row r="56" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>88</v>
+      </c>
+      <c r="B56" s="14">
+        <v>10</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Vip 10级级用户，具备的特权有
+1.每日副本次数增加
+2.额外的背包格子</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <v>3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+    </row>
+    <row r="57" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>100</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>500</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+    </row>
+    <row r="58" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>101</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
+        <v>500</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7">
+        <v>3</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>102</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>500</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+    </row>
+    <row r="60" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>103</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>500</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7">
+        <v>3</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+    </row>
+    <row r="61" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>110</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7">
+        <v>3</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+    </row>
+    <row r="62" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="13">
+        <v>111</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62" s="7">
+        <v>3</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+    </row>
+    <row r="63" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>112</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+      <c r="J63" s="7">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+    </row>
+    <row r="64" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="13">
+        <v>113</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AE13 N30:AE37">
+  <conditionalFormatting sqref="N2:AE13 N57:AE64">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:AE56">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:AE18">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:AE21">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:AE23">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:AE26">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:AE28">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:AE31">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:R34 V32:AE34">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:X37 Z35:AE37">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:W40 Y38:AE40">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:AE41">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:AE43">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:AE44">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45:AE46">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:AE29">
+  <conditionalFormatting sqref="S32:U34">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:AE16">
+  <conditionalFormatting sqref="Y35:Y37">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:AE19">
+  <conditionalFormatting sqref="X38:X40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3338,15 +5385,15 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="str">
         <f>"增加角色的"&amp;A10&amp;"上限"</f>
@@ -3354,8 +5401,8 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>91</v>
+      <c r="A11" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ref="B11:B27" si="0">"增加角色的"&amp;A11&amp;"上限"</f>
@@ -3364,7 +5411,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -3372,8 +5419,8 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>92</v>
+      <c r="A13" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -3382,7 +5429,7 @@
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -3390,8 +5437,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>93</v>
+      <c r="A15" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -3400,7 +5447,7 @@
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -3408,8 +5455,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>94</v>
+      <c r="A17" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -3418,7 +5465,7 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -3427,7 +5474,7 @@
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -3436,7 +5483,7 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -3445,7 +5492,7 @@
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -3454,7 +5501,7 @@
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -3463,7 +5510,7 @@
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -3472,7 +5519,7 @@
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -3481,7 +5528,7 @@
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3490,7 +5537,7 @@
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3499,7 +5546,7 @@
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>

--- a/doc/table/Buff表.xlsx
+++ b/doc/table/Buff表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -595,6 +595,10 @@
   <si>
     <t>【说明】
 buff状态下移动速度减缓80%，持续4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -741,12 +751,164 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1173,150 +1335,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21" style="15" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="9.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="3" max="3" width="6.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21" style="15" customWidth="1"/>
+    <col min="5" max="5" width="63.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="21">
+        <f>A2^1.8+B2^1.5</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
@@ -1328,29 +1495,29 @@
         <v>1</v>
       </c>
       <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
         <v>100000</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7">
         <v>100000</v>
       </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7">
         <v>100000</v>
       </c>
-      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="7">
-        <v>100000</v>
-      </c>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="7">
         <v>100000</v>
       </c>
@@ -1360,36 +1527,40 @@
       <c r="AC2" s="7">
         <v>100000</v>
       </c>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="7">
+        <v>100000</v>
+      </c>
       <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C64" si="0">A3^1.8+B3^1.5</f>
+        <v>3.8284271247461898</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -1401,29 +1572,29 @@
         <v>1</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7">
         <v>100000</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
         <v>100000</v>
       </c>
-      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7">
         <v>100000</v>
       </c>
-      <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7">
-        <v>100000</v>
-      </c>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="7">
         <v>100000</v>
       </c>
@@ -1433,36 +1604,40 @@
       <c r="AC3" s="7">
         <v>100000</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7">
+        <v>100000</v>
+      </c>
       <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>4.4822022531844965</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -1471,67 +1646,71 @@
         <v>1</v>
       </c>
       <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
         <v>10000</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
         <v>10000</v>
       </c>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7">
         <v>10000</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>10000</v>
-      </c>
+      <c r="X4" s="7"/>
       <c r="Y4" s="7">
         <v>10000</v>
       </c>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>10000</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>6.3106293779306863</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -1540,81 +1719,87 @@
         <v>1</v>
       </c>
       <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
         <v>10000</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
         <v>10000</v>
       </c>
-      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7">
         <v>10000</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>10000</v>
-      </c>
+      <c r="X5" s="7"/>
       <c r="Y5" s="7">
         <v>10000</v>
       </c>
-      <c r="Z5" s="7"/>
+      <c r="Z5" s="7">
+        <v>10000</v>
+      </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>8.2246740558420779</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1632,48 +1817,52 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-    </row>
-    <row r="7" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>13.125732532083184</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1691,48 +1880,52 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-    </row>
-    <row r="8" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>19.119491591942388</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1750,48 +1943,52 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>26.157776275776857</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1809,48 +2006,52 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>34.20293475662357</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1868,48 +2069,52 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>43.2242531447326</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1927,48 +2132,52 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-    </row>
-    <row r="12" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>53.195915213157619</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1986,48 +2195,52 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>64.095734448019357</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2045,48 +2258,52 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="1:32" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>50</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>1144.2626298183159</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
       <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>10</v>
       </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
       <c r="J14" s="8">
         <v>1</v>
       </c>
       <c r="K14" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -2104,48 +2321,52 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
-    </row>
-    <row r="15" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF14" s="8"/>
+    </row>
+    <row r="15" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>50</v>
       </c>
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>1146.0910569430621</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
       <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
       <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2163,48 +2384,52 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>50</v>
       </c>
       <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="21">
+        <f t="shared" si="0"/>
+        <v>1148.4587822410226</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
       <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>10</v>
       </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
       <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2222,48 +2447,52 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>50</v>
       </c>
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="21">
+        <f t="shared" si="0"/>
+        <v>1151.2626298183159</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
       <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
       <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2281,48 +2510,52 @@
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>50</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>1154.4429697058149</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
       <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
         <v>10</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
       <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -2340,48 +2573,52 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>51</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>1185.7489077274545</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
       <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
         <v>600</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
       <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2399,48 +2636,52 @@
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
-    </row>
-    <row r="20" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>51</v>
       </c>
       <c r="B20" s="13">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>1187.5773348522007</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
       <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>600</v>
       </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
       <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -2458,48 +2699,52 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-    </row>
-    <row r="21" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>51</v>
       </c>
       <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="21">
+        <f t="shared" si="0"/>
+        <v>1189.9450601501612</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
       <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
         <v>600</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
       <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2517,48 +2762,52 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>51</v>
       </c>
       <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>1192.7489077274545</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
       <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
         <v>600</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
       <c r="J22" s="7">
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -2576,48 +2825,52 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>51</v>
       </c>
       <c r="B23" s="13">
         <v>5</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="21">
+        <f t="shared" si="0"/>
+        <v>1195.9292476149535</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
       <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
         <v>600</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
       <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2635,48 +2888,52 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
-    </row>
-    <row r="24" spans="1:31" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" spans="1:32" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>52</v>
       </c>
       <c r="B24" s="16">
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>1227.8911070309189</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
       <c r="K24" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -2694,48 +2951,52 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
-    </row>
-    <row r="25" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF24" s="8"/>
+    </row>
+    <row r="25" spans="1:32" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>52</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="21">
+        <f t="shared" si="0"/>
+        <v>1229.7195341556651</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2753,48 +3014,52 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>52</v>
       </c>
       <c r="B26" s="13">
         <v>3</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
+        <v>1232.0872594536254</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2812,48 +3077,52 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>52</v>
       </c>
       <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="21">
+        <f t="shared" si="0"/>
+        <v>1234.8911070309189</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2871,48 +3140,52 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>52</v>
       </c>
       <c r="B28" s="13">
         <v>5</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
+        <v>1238.0714469184179</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -2930,59 +3203,63 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="21">
+        <f t="shared" si="0"/>
+        <v>1270.6866851297734</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="E29" s="20" t="str">
         <f>"【说明】
-1分钟内提升"&amp;TEXT(O29/10000,"0%")&amp;"的物攻和魔攻"</f>
+1分钟内提升"&amp;TEXT(P29/10000,"0%")&amp;"的物攻和魔攻"</f>
         <v>【说明】
 1分钟内提升10%的物攻和魔攻</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
       <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
         <v>60</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
       <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7">
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7">
         <v>1000</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
         <v>1000</v>
       </c>
-      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -2996,59 +3273,63 @@
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-    </row>
-    <row r="30" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF29" s="7"/>
+    </row>
+    <row r="30" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="21">
+        <f t="shared" si="0"/>
+        <v>1272.5151122545196</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="20" t="str">
-        <f t="shared" ref="D30:D31" si="0">"【说明】
-1分钟内提升"&amp;TEXT(O30/10000,"0%")&amp;"的物攻和魔攻"</f>
+      <c r="E30" s="20" t="str">
+        <f t="shared" ref="E30:E31" si="1">"【说明】
+1分钟内提升"&amp;TEXT(P30/10000,"0%")&amp;"的物攻和魔攻"</f>
         <v>【说明】
 1分钟内提升20%的物攻和魔攻</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
       <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
         <v>60</v>
       </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
       <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
         <v>2000</v>
       </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7">
         <v>2000</v>
       </c>
-      <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -3062,58 +3343,62 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-    </row>
-    <row r="31" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="21">
+        <f t="shared" si="0"/>
+        <v>1274.8828375524799</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="20" t="str">
-        <f t="shared" si="0"/>
+      <c r="E31" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>【说明】
 1分钟内提升30%的物攻和魔攻</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
       <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
         <v>60</v>
       </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
       <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7">
         <v>3000</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
         <v>3000</v>
       </c>
-      <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -3127,63 +3412,67 @@
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="21">
+        <f t="shared" si="0"/>
+        <v>1314.1331574420365</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="E32" s="20" t="str">
         <f>"【说明】
-1分钟内提升"&amp;TEXT(S32/10000,"0%")&amp;"的物防和魔防"</f>
+1分钟内提升"&amp;TEXT(T32/10000,"0%")&amp;"的物防和魔防"</f>
         <v>【说明】
 1分钟内提升10%的物防和魔防</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
       <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
         <v>60</v>
       </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
       <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="7">
+      <c r="S32" s="7"/>
+      <c r="T32" s="7">
         <v>1000</v>
       </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7">
+      <c r="U32" s="7"/>
+      <c r="V32" s="7">
         <v>1000</v>
       </c>
-      <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -3193,63 +3482,67 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-    </row>
-    <row r="33" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="21">
+        <f t="shared" si="0"/>
+        <v>1315.9615845667827</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="20" t="str">
-        <f t="shared" ref="D33:D34" si="1">"【说明】
-1分钟内提升"&amp;TEXT(S33/10000,"0%")&amp;"的物防和魔防"</f>
+      <c r="E33" s="20" t="str">
+        <f t="shared" ref="E33:E34" si="2">"【说明】
+1分钟内提升"&amp;TEXT(T33/10000,"0%")&amp;"的物防和魔防"</f>
         <v>【说明】
 1分钟内提升20%的物防和魔防</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
       <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
         <v>60</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
       <c r="J33" s="7">
         <v>1</v>
       </c>
       <c r="K33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="7">
+      <c r="S33" s="7"/>
+      <c r="T33" s="7">
         <v>2000</v>
       </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7">
+      <c r="U33" s="7"/>
+      <c r="V33" s="7">
         <v>2000</v>
       </c>
-      <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -3259,62 +3552,66 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="13">
         <v>3</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="21">
+        <f t="shared" si="0"/>
+        <v>1318.3293098647432</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="E34" s="20" t="str">
+        <f t="shared" si="2"/>
         <v>【说明】
 1分钟内提升30%的物防和魔防</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
       <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
         <v>60</v>
       </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
       <c r="J34" s="7">
         <v>1</v>
       </c>
       <c r="K34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="7">
+      <c r="S34" s="7"/>
+      <c r="T34" s="7">
         <v>3000</v>
       </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7">
+      <c r="U34" s="7"/>
+      <c r="V34" s="7">
         <v>3000</v>
       </c>
-      <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -3324,51 +3621,55 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
-    </row>
-    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="21">
+        <f t="shared" si="0"/>
+        <v>1358.2280950207535</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="20" t="str">
+      <c r="E35" s="20" t="str">
         <f>"【说明】
-1分钟内提升"&amp;TEXT(Y35/10000,"0%")&amp;"的暴击"</f>
+1分钟内提升"&amp;TEXT(Z35/10000,"0%")&amp;"的暴击"</f>
         <v>【说明】
 1分钟内提升10%的暴击</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
       <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
         <v>60</v>
       </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
       <c r="J35" s="7">
         <v>1</v>
       </c>
       <c r="K35" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -3379,60 +3680,64 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7">
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7">
         <v>1000</v>
       </c>
-      <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
-    </row>
-    <row r="36" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="13">
         <v>2</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="21">
+        <f t="shared" si="0"/>
+        <v>1360.0565221454997</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="20" t="str">
-        <f t="shared" ref="D36:D37" si="2">"【说明】
-1分钟内提升"&amp;TEXT(Y36/10000,"0%")&amp;"的暴击"</f>
+      <c r="E36" s="20" t="str">
+        <f t="shared" ref="E36:E37" si="3">"【说明】
+1分钟内提升"&amp;TEXT(Z36/10000,"0%")&amp;"的暴击"</f>
         <v>【说明】
 1分钟内提升20%的暴击</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
       <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
         <v>60</v>
       </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
       <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -3443,59 +3748,63 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7">
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7">
         <v>2000</v>
       </c>
-      <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
-    </row>
-    <row r="37" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF36" s="7"/>
+    </row>
+    <row r="37" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="21">
+        <f t="shared" si="0"/>
+        <v>1362.42424744346</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="20" t="str">
-        <f t="shared" si="2"/>
+      <c r="E37" s="20" t="str">
+        <f t="shared" si="3"/>
         <v>【说明】
 1分钟内提升30%的暴击</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
       <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
         <v>60</v>
       </c>
-      <c r="I37" s="7">
-        <v>1</v>
-      </c>
       <c r="J37" s="7">
         <v>1</v>
       </c>
       <c r="K37" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -3506,60 +3815,64 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7">
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7">
         <v>3000</v>
       </c>
-      <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-    </row>
-    <row r="38" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="13">
         <v>1</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="21">
+        <f t="shared" si="0"/>
+        <v>1402.9691223117154</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="20" t="str">
+      <c r="E38" s="20" t="str">
         <f>"【说明】
-1分钟内提升"&amp;TEXT(X38/10000,"0%")&amp;"的闪避"</f>
+1分钟内提升"&amp;TEXT(Y38/10000,"0%")&amp;"的闪避"</f>
         <v>【说明】
 1分钟内提升10%的闪避</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
       <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
         <v>60</v>
       </c>
-      <c r="I38" s="7">
-        <v>1</v>
-      </c>
       <c r="J38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -3569,61 +3882,65 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="7">
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7">
         <v>1000</v>
       </c>
-      <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
-    </row>
-    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="13">
         <v>2</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="21">
+        <f t="shared" si="0"/>
+        <v>1404.7975494364616</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="20" t="str">
-        <f t="shared" ref="D39:D40" si="3">"【说明】
-1分钟内提升"&amp;TEXT(X39/10000,"0%")&amp;"的闪避"</f>
+      <c r="E39" s="20" t="str">
+        <f t="shared" ref="E39:E40" si="4">"【说明】
+1分钟内提升"&amp;TEXT(Y39/10000,"0%")&amp;"的闪避"</f>
         <v>【说明】
 1分钟内提升20%的闪避</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
       <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
         <v>60</v>
       </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
       <c r="J39" s="7">
         <v>1</v>
       </c>
       <c r="K39" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -3633,60 +3950,64 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="7">
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7">
         <v>2000</v>
       </c>
-      <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="13">
         <v>3</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="21">
+        <f t="shared" si="0"/>
+        <v>1407.1652747344219</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="E40" s="20" t="str">
+        <f t="shared" si="4"/>
         <v>【说明】
 1分钟内提升30%的闪避</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
       <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
         <v>60</v>
       </c>
-      <c r="I40" s="7">
-        <v>1</v>
-      </c>
       <c r="J40" s="7">
         <v>1</v>
       </c>
       <c r="K40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -3696,58 +4017,62 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7">
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7">
         <v>3000</v>
       </c>
-      <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
-    </row>
-    <row r="41" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="16">
         <v>1</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="21">
+        <f t="shared" si="0"/>
+        <v>1448.3539150402789</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="E41" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="8">
-        <v>1</v>
-      </c>
       <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
         <v>10</v>
       </c>
-      <c r="I41" s="8">
-        <v>1</v>
-      </c>
       <c r="J41" s="8">
         <v>1</v>
       </c>
       <c r="K41" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
       </c>
-      <c r="N41" s="8"/>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -3765,48 +4090,52 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
-    </row>
-    <row r="42" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF41" s="8"/>
+    </row>
+    <row r="42" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="13">
         <v>2</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="21">
+        <f t="shared" si="0"/>
+        <v>1450.1823421650251</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
       <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
         <v>10</v>
       </c>
-      <c r="I42" s="7">
-        <v>1</v>
-      </c>
       <c r="J42" s="7">
         <v>1</v>
       </c>
       <c r="K42" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -3824,48 +4153,52 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
-    </row>
-    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF42" s="7"/>
+    </row>
+    <row r="43" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="21">
+        <f t="shared" si="0"/>
+        <v>1452.5500674629857</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
       <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
         <v>10</v>
       </c>
-      <c r="I43" s="7">
-        <v>1</v>
-      </c>
       <c r="J43" s="7">
         <v>1</v>
       </c>
       <c r="K43" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -3883,48 +4216,52 @@
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
-    </row>
-    <row r="44" spans="1:31" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="44" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="16">
         <v>1</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="21">
+        <f t="shared" si="0"/>
+        <v>1494.3801982176915</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
       <c r="H44" s="8">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
         <v>4</v>
       </c>
-      <c r="I44" s="8">
-        <v>1</v>
-      </c>
       <c r="J44" s="8">
         <v>1</v>
       </c>
       <c r="K44" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" s="8">
         <v>0</v>
       </c>
-      <c r="N44" s="8"/>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
@@ -3942,48 +4279,52 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
-    </row>
-    <row r="45" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF44" s="8"/>
+    </row>
+    <row r="45" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="13">
         <v>2</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="21">
+        <f t="shared" si="0"/>
+        <v>1496.2086253424377</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
       <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
         <v>4</v>
       </c>
-      <c r="I45" s="7">
-        <v>1</v>
-      </c>
       <c r="J45" s="7">
         <v>1</v>
       </c>
       <c r="K45" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -4001,48 +4342,52 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-    </row>
-    <row r="46" spans="1:31" ht="33" x14ac:dyDescent="0.35">
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="13">
         <v>3</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="21">
+        <f t="shared" si="0"/>
+        <v>1498.5763506403982</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
       <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
         <v>4</v>
       </c>
-      <c r="I46" s="7">
-        <v>1</v>
-      </c>
       <c r="J46" s="7">
         <v>1</v>
       </c>
       <c r="K46" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -4060,39 +4405,41 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>88</v>
       </c>
       <c r="B47" s="14">
         <v>1</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="21">
+        <f t="shared" si="0"/>
+        <v>3163.7787329741641</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="10" t="str">
-        <f>C47&amp;"级用户，具备的特权有
+      <c r="E47" s="10" t="str">
+        <f>D47&amp;"级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子"</f>
         <v>Vip 1级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
         <v>1</v>
@@ -4101,19 +4448,21 @@
         <v>1</v>
       </c>
       <c r="L47" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
         <v>100</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7">
         <v>100</v>
       </c>
-      <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4128,39 +4477,41 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
-    </row>
-    <row r="48" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF47" s="7"/>
+    </row>
+    <row r="48" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
         <v>88</v>
       </c>
       <c r="B48" s="14">
         <v>2</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="21">
+        <f t="shared" si="0"/>
+        <v>3165.6071600989103</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="10" t="str">
-        <f t="shared" ref="D48:D56" si="4">C48&amp;"级用户，具备的特权有
+      <c r="E48" s="10" t="str">
+        <f t="shared" ref="E48:E56" si="5">D48&amp;"级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子"</f>
         <v>Vip 2级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
         <v>1</v>
@@ -4169,20 +4520,22 @@
         <v>1</v>
       </c>
       <c r="L48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" ref="N48:N56" si="5">N$47+B48*20</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" ref="O48:O56" si="6">O$47+B48*20</f>
         <v>140</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7">
         <v>140</v>
       </c>
-      <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4197,37 +4550,39 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
-    </row>
-    <row r="49" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="49" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
         <v>88</v>
       </c>
       <c r="B49" s="14">
         <v>3</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="21">
+        <f t="shared" si="0"/>
+        <v>3167.9748853968708</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E49" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 3级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
@@ -4236,20 +4591,22 @@
         <v>1</v>
       </c>
       <c r="L49" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7">
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7">
         <v>160</v>
       </c>
-      <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -4264,37 +4621,39 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
-    </row>
-    <row r="50" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF49" s="7"/>
+    </row>
+    <row r="50" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>88</v>
       </c>
       <c r="B50" s="14">
         <v>4</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="21">
+        <f t="shared" si="0"/>
+        <v>3170.7787329741641</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 4级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7">
         <v>1</v>
@@ -4303,20 +4662,22 @@
         <v>1</v>
       </c>
       <c r="L50" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7">
         <v>180</v>
       </c>
-      <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -4331,37 +4692,39 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
-    </row>
-    <row r="51" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF50" s="7"/>
+    </row>
+    <row r="51" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>88</v>
       </c>
       <c r="B51" s="14">
         <v>5</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="21">
+        <f t="shared" si="0"/>
+        <v>3173.9590728616631</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E51" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 5级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="7">
-        <v>1</v>
-      </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
@@ -4370,20 +4733,22 @@
         <v>1</v>
       </c>
       <c r="L51" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7">
         <v>200</v>
       </c>
-      <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -4398,37 +4763,39 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-    </row>
-    <row r="52" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF51" s="7"/>
+    </row>
+    <row r="52" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
         <v>88</v>
       </c>
       <c r="B52" s="14">
         <v>6</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="21">
+        <f t="shared" si="0"/>
+        <v>3177.4756714308633</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E52" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 6级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7">
         <v>1</v>
@@ -4437,20 +4804,22 @@
         <v>1</v>
       </c>
       <c r="L52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7">
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7">
         <v>220</v>
       </c>
-      <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
@@ -4465,37 +4834,39 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-    </row>
-    <row r="53" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF52" s="7"/>
+    </row>
+    <row r="53" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>88</v>
       </c>
       <c r="B53" s="14">
         <v>7</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="21">
+        <f t="shared" si="0"/>
+        <v>3181.2989921516164</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E53" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 7级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7">
         <v>1</v>
@@ -4504,20 +4875,22 @@
         <v>1</v>
       </c>
       <c r="L53" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7">
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7">
         <v>240</v>
       </c>
-      <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -4532,37 +4905,39 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-    </row>
-    <row r="54" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF53" s="7"/>
+    </row>
+    <row r="54" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>88</v>
       </c>
       <c r="B54" s="14">
         <v>8</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="21">
+        <f t="shared" si="0"/>
+        <v>3185.4061499721338</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E54" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 8级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7">
         <v>1</v>
@@ -4571,20 +4946,22 @@
         <v>1</v>
       </c>
       <c r="L54" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7">
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7">
         <v>260</v>
       </c>
-      <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -4599,37 +4976,39 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-    </row>
-    <row r="55" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF54" s="7"/>
+    </row>
+    <row r="55" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>88</v>
       </c>
       <c r="B55" s="14">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="21">
+        <f t="shared" si="0"/>
+        <v>3189.7787329741641</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E55" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 9级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="7">
-        <v>1</v>
-      </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7">
         <v>1</v>
@@ -4638,20 +5017,22 @@
         <v>1</v>
       </c>
       <c r="L55" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7">
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7">
         <v>280</v>
       </c>
-      <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -4666,37 +5047,39 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-    </row>
-    <row r="56" spans="1:31" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="AF55" s="7"/>
+    </row>
+    <row r="56" spans="1:32" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>88</v>
       </c>
       <c r="B56" s="14">
         <v>10</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="21">
+        <f t="shared" si="0"/>
+        <v>3194.4015095758477</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="E56" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>Vip 10级级用户，具备的特权有
 1.每日副本次数增加
 2.额外的背包格子</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="7">
-        <v>1</v>
-      </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
@@ -4705,20 +5088,22 @@
         <v>1</v>
       </c>
       <c r="L56" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7">
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7">
         <v>300</v>
       </c>
-      <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -4733,52 +5118,56 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-    </row>
-    <row r="57" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF56" s="7"/>
+    </row>
+    <row r="57" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>100</v>
       </c>
       <c r="B57" s="13">
         <v>1</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="21">
+        <f t="shared" si="0"/>
+        <v>3982.0717055349769</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
       <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
         <v>500</v>
       </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
       <c r="J57" s="7">
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
       </c>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7">
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7">
         <v>1000</v>
       </c>
-      <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -4794,48 +5183,52 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-    </row>
-    <row r="58" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF57" s="7"/>
+    </row>
+    <row r="58" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>101</v>
       </c>
       <c r="B58" s="13">
         <v>1</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="21">
+        <f t="shared" si="0"/>
+        <v>4054.0174428767236</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
       <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
         <v>500</v>
       </c>
-      <c r="I58" s="7">
-        <v>1</v>
-      </c>
       <c r="J58" s="7">
         <v>1</v>
       </c>
       <c r="K58" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -4853,48 +5246,52 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
-    </row>
-    <row r="59" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF58" s="7"/>
+    </row>
+    <row r="59" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
         <v>102</v>
       </c>
       <c r="B59" s="13">
         <v>1</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="21">
+        <f t="shared" si="0"/>
+        <v>4126.5353159464103</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G59" s="7">
-        <v>1</v>
-      </c>
       <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
         <v>500</v>
       </c>
-      <c r="I59" s="7">
-        <v>1</v>
-      </c>
       <c r="J59" s="7">
         <v>1</v>
       </c>
       <c r="K59" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -4912,48 +5309,52 @@
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-    </row>
-    <row r="60" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF59" s="7"/>
+    </row>
+    <row r="60" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
         <v>103</v>
       </c>
       <c r="B60" s="13">
         <v>1</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="21">
+        <f t="shared" si="0"/>
+        <v>4199.6241984620319</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="7">
-        <v>1</v>
-      </c>
       <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
         <v>500</v>
       </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
       <c r="J60" s="7">
         <v>1</v>
       </c>
       <c r="K60" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
       </c>
-      <c r="N60" s="7"/>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -4971,48 +5372,52 @@
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
-    </row>
-    <row r="61" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF60" s="7"/>
+    </row>
+    <row r="61" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
         <v>110</v>
       </c>
       <c r="B61" s="13">
         <v>1</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="21">
+        <f t="shared" si="0"/>
+        <v>4727.1427305665748</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
       <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7">
         <v>30000</v>
       </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
       <c r="J61" s="7">
         <v>1</v>
       </c>
       <c r="K61" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="7"/>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -5030,48 +5435,52 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
-    </row>
-    <row r="62" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF61" s="7"/>
+    </row>
+    <row r="62" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
         <v>111</v>
       </c>
       <c r="B62" s="13">
         <v>1</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="21">
+        <f t="shared" si="0"/>
+        <v>4804.7606666577622</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="7">
-        <v>1</v>
-      </c>
       <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7">
         <v>30000</v>
       </c>
-      <c r="I62" s="7">
-        <v>1</v>
-      </c>
       <c r="J62" s="7">
         <v>1</v>
       </c>
       <c r="K62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="7"/>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -5089,48 +5498,52 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-    </row>
-    <row r="63" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF62" s="7"/>
+    </row>
+    <row r="63" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
         <v>112</v>
       </c>
       <c r="B63" s="13">
         <v>1</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="21">
+        <f t="shared" si="0"/>
+        <v>4882.9400366089421</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="7">
-        <v>1</v>
-      </c>
       <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
         <v>30000</v>
       </c>
-      <c r="I63" s="7">
-        <v>1</v>
-      </c>
       <c r="J63" s="7">
         <v>1</v>
       </c>
       <c r="K63" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -5148,48 +5561,52 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
-    </row>
-    <row r="64" spans="1:31" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AF63" s="7"/>
+    </row>
+    <row r="64" spans="1:32" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
         <v>113</v>
       </c>
       <c r="B64" s="13">
         <v>1</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="21">
+        <f t="shared" si="0"/>
+        <v>4961.6798342435968</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G64" s="7">
-        <v>1</v>
-      </c>
       <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
         <v>30000</v>
       </c>
-      <c r="I64" s="7">
-        <v>1</v>
-      </c>
       <c r="J64" s="7">
         <v>1</v>
       </c>
       <c r="K64" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -5207,98 +5624,102 @@
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AE13 N57:AE64">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="O2:AF13 O57:AF64">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47:AE56">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+  <conditionalFormatting sqref="O47:AF56">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:AE18">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="O14:AF18">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:AE21">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="O19:AF21">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:AE23">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="O22:AF23">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:AE26">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+  <conditionalFormatting sqref="O24:AF26">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:AE28">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="O27:AF28">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:AE31">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+  <conditionalFormatting sqref="O29:AF31">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32:R34 V32:AE34">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="O32:S34 W32:AF34">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:X37 Z35:AE37">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="O35:Y37 AA35:AF37">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:W40 Y38:AE40">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="O38:X40 Z38:AF40">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41:AE41">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="O41:AF41">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42:AE43">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="O42:AF43">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:AE44">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="O44:AF44">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45:AE46">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="O45:AF46">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:U34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="T32:V34">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y35:Y37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="Z35:Z37">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:X40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="Y38:Y40">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C64">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
